--- a/Tables/RecordLevel.xlsx
+++ b/Tables/RecordLevel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6621C999-D1C7-4F98-ABDA-AB4B31D78EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206A614-38F1-4C08-BC36-6A2E13B17144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CA0932F6-C7DF-449B-8526-852ED52D5A11}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA0932F6-C7DF-449B-8526-852ED52D5A11}"/>
   </bookViews>
   <sheets>
     <sheet name="Record Level " sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>An identifier for the set of data. May be a global unique identifier or an identifier specific to a collection or institution.</t>
   </si>
   <si>
-    <t xml:space="preserve">datasetID* </t>
-  </si>
-  <si>
     <t>REQUIRED</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>TERM</t>
+  </si>
+  <si>
+    <t>datasetID</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,30 +575,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">

--- a/Tables/RecordLevel.xlsx
+++ b/Tables/RecordLevel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8206A614-38F1-4C08-BC36-6A2E13B17144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B0F26-CE58-4119-A773-9B58E4EAE376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CA0932F6-C7DF-449B-8526-852ED52D5A11}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Record Level " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Record Level '!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Record Level '!$B$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t xml:space="preserve">String </t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>datasetID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order </t>
   </si>
 </sst>
 </file>
@@ -557,222 +560,249 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78F6BE2-F7DF-4FDB-8B81-38EA7A87D9E9}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.26953125" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="37.7265625" customWidth="1"/>
-    <col min="4" max="4" width="46.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="34.36328125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7265625" customWidth="1"/>
+    <col min="5" max="5" width="46.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="34.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" ht="39.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{7944AD00-16C7-4062-9F00-768216764EFD}"/>
+  <autoFilter ref="B1:H12" xr:uid="{7944AD00-16C7-4062-9F00-768216764EFD}"/>
   <mergeCells count="2">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
